--- a/data/pca/factorExposure/factorExposure_2017-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02386041665883182</v>
+        <v>-0.0107100855592928</v>
       </c>
       <c r="C2">
-        <v>0.002192739589798722</v>
+        <v>0.04528636621192592</v>
       </c>
       <c r="D2">
-        <v>-0.03335030254645261</v>
+        <v>-0.02990777845589337</v>
       </c>
       <c r="E2">
-        <v>0.002872413394735265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03362543262290733</v>
+      </c>
+      <c r="F2">
+        <v>-0.01011915776125626</v>
+      </c>
+      <c r="G2">
+        <v>-0.09738017863470086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01798121006641042</v>
+        <v>-0.04515543667260357</v>
       </c>
       <c r="C3">
-        <v>-0.04299520789710008</v>
+        <v>0.09824747537569818</v>
       </c>
       <c r="D3">
-        <v>-0.09625873202644691</v>
+        <v>-0.01668792526784844</v>
       </c>
       <c r="E3">
-        <v>0.01490974747298737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09603184218191065</v>
+      </c>
+      <c r="F3">
+        <v>-0.004505850248629466</v>
+      </c>
+      <c r="G3">
+        <v>-0.1829591357057406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02534619707348154</v>
+        <v>-0.05594483912752562</v>
       </c>
       <c r="C4">
-        <v>-0.01447114123949807</v>
+        <v>0.06816747496078278</v>
       </c>
       <c r="D4">
-        <v>-0.08794248555023206</v>
+        <v>-0.02445038263165413</v>
       </c>
       <c r="E4">
-        <v>-0.0254412854276567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02682705758185683</v>
+      </c>
+      <c r="F4">
+        <v>-0.01269037615006404</v>
+      </c>
+      <c r="G4">
+        <v>-0.09547085505579968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01429509616865655</v>
+        <v>-0.03711892934741114</v>
       </c>
       <c r="C6">
-        <v>0.004047288166537058</v>
+        <v>0.0531874847745644</v>
       </c>
       <c r="D6">
-        <v>-0.08129174173048824</v>
+        <v>-0.01686289433258804</v>
       </c>
       <c r="E6">
-        <v>-0.01627647057850182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03096743641596963</v>
+      </c>
+      <c r="F6">
+        <v>-0.01176228381633171</v>
+      </c>
+      <c r="G6">
+        <v>-0.07578397045831438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01183711088356831</v>
+        <v>-0.02077310422503555</v>
       </c>
       <c r="C7">
-        <v>-0.006239533201306735</v>
+        <v>0.04191481648625581</v>
       </c>
       <c r="D7">
-        <v>-0.04303094431969007</v>
+        <v>-0.01344905167277653</v>
       </c>
       <c r="E7">
-        <v>-0.06421559048621807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.003637060923552421</v>
+      </c>
+      <c r="F7">
+        <v>0.003878798074766786</v>
+      </c>
+      <c r="G7">
+        <v>-0.1283239212180805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005886990356700825</v>
+        <v>-0.003743240335678543</v>
       </c>
       <c r="C8">
-        <v>0.0007960751127527812</v>
+        <v>0.02515123894034232</v>
       </c>
       <c r="D8">
-        <v>-0.003941877700987294</v>
+        <v>-0.004000457283055257</v>
       </c>
       <c r="E8">
-        <v>-0.007953208565346589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02349451529085518</v>
+      </c>
+      <c r="F8">
+        <v>-0.007197887231646879</v>
+      </c>
+      <c r="G8">
+        <v>-0.06756464280936615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0172578011534758</v>
+        <v>-0.03325551480008639</v>
       </c>
       <c r="C9">
-        <v>-0.01447013644764043</v>
+        <v>0.04932975261467933</v>
       </c>
       <c r="D9">
-        <v>-0.06350360533305115</v>
+        <v>-0.01669704943638369</v>
       </c>
       <c r="E9">
-        <v>-0.01415311533106602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01708093343624121</v>
+      </c>
+      <c r="F9">
+        <v>-0.01033246275014868</v>
+      </c>
+      <c r="G9">
+        <v>-0.09555118260147455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02643703563471054</v>
+        <v>-0.09850391271151353</v>
       </c>
       <c r="C10">
-        <v>-0.1719036788397175</v>
+        <v>-0.181729121844655</v>
       </c>
       <c r="D10">
-        <v>0.1057113622473328</v>
+        <v>0.01482232867331561</v>
       </c>
       <c r="E10">
-        <v>0.02002231683023396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02075192920980493</v>
+      </c>
+      <c r="F10">
+        <v>0.02154076027509173</v>
+      </c>
+      <c r="G10">
+        <v>-0.06054519481537083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001253457227265595</v>
+        <v>-0.03504228759329275</v>
       </c>
       <c r="C11">
-        <v>-0.004278774570259309</v>
+        <v>0.05497542135324741</v>
       </c>
       <c r="D11">
-        <v>-0.05750183091857042</v>
+        <v>-0.002283712644437985</v>
       </c>
       <c r="E11">
-        <v>-0.006549490969264964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.00984767059222412</v>
+      </c>
+      <c r="F11">
+        <v>-0.02132424075468574</v>
+      </c>
+      <c r="G11">
+        <v>-0.08441744080450002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005861950601985241</v>
+        <v>-0.03666389190598094</v>
       </c>
       <c r="C12">
-        <v>-0.00439577742699771</v>
+        <v>0.04920289058346123</v>
       </c>
       <c r="D12">
-        <v>-0.05144351040411997</v>
+        <v>-0.006182824612524965</v>
       </c>
       <c r="E12">
-        <v>-0.01614475034797408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002533920144423288</v>
+      </c>
+      <c r="F12">
+        <v>-0.001719681641372811</v>
+      </c>
+      <c r="G12">
+        <v>-0.07873722898782622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02494431104909826</v>
+        <v>-0.01584724462340642</v>
       </c>
       <c r="C13">
-        <v>-0.01879044664250309</v>
+        <v>0.04091873039604785</v>
       </c>
       <c r="D13">
-        <v>-0.03732997058449499</v>
+        <v>-0.0263947921528702</v>
       </c>
       <c r="E13">
-        <v>0.0003968270791595357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.031281562049182</v>
+      </c>
+      <c r="F13">
+        <v>-0.007373898201884362</v>
+      </c>
+      <c r="G13">
+        <v>-0.1218169642605082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009192509954817248</v>
+        <v>-0.008709926226452178</v>
       </c>
       <c r="C14">
-        <v>-0.01324859289804064</v>
+        <v>0.02955182536814385</v>
       </c>
       <c r="D14">
-        <v>-0.01952569730027288</v>
+        <v>-0.009960861485104215</v>
       </c>
       <c r="E14">
-        <v>-0.008411725242840768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002723918916447359</v>
+      </c>
+      <c r="F14">
+        <v>0.00859632013451973</v>
+      </c>
+      <c r="G14">
+        <v>-0.09926617415774294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001867449645757873</v>
+        <v>-0.03343118359048515</v>
       </c>
       <c r="C16">
-        <v>-0.009084702501495777</v>
+        <v>0.04856806441355656</v>
       </c>
       <c r="D16">
-        <v>-0.05125942447486685</v>
+        <v>-0.001897172682980026</v>
       </c>
       <c r="E16">
-        <v>-0.01602275905215168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009485208465499453</v>
+      </c>
+      <c r="F16">
+        <v>-0.0026644623768104</v>
+      </c>
+      <c r="G16">
+        <v>-0.08715950236822356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01612652307362045</v>
+        <v>-0.02189294221069525</v>
       </c>
       <c r="C19">
-        <v>-0.02042370724847712</v>
+        <v>0.05445462732828331</v>
       </c>
       <c r="D19">
-        <v>-0.0475684551559462</v>
+        <v>-0.01902531146626431</v>
       </c>
       <c r="E19">
-        <v>-0.01638463826924302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06859938849757273</v>
+      </c>
+      <c r="F19">
+        <v>-0.02462346644518621</v>
+      </c>
+      <c r="G19">
+        <v>-0.132651508001159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01168206572717866</v>
+        <v>-0.01499598784350953</v>
       </c>
       <c r="C20">
-        <v>-0.007225968308164808</v>
+        <v>0.04005553123017845</v>
       </c>
       <c r="D20">
-        <v>-0.03583796906815444</v>
+        <v>-0.01417689949184471</v>
       </c>
       <c r="E20">
-        <v>0.00680928625067146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02980565436745865</v>
+      </c>
+      <c r="F20">
+        <v>0.009987293339184876</v>
+      </c>
+      <c r="G20">
+        <v>-0.1066667608571516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01623764147225534</v>
+        <v>-0.01252234361657869</v>
       </c>
       <c r="C21">
-        <v>-0.01761276025255176</v>
+        <v>0.04057996601048836</v>
       </c>
       <c r="D21">
-        <v>-0.03802834670427488</v>
+        <v>-0.018708832037552</v>
       </c>
       <c r="E21">
-        <v>-0.01130161533295559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04238699827896244</v>
+      </c>
+      <c r="F21">
+        <v>-0.00271137118715644</v>
+      </c>
+      <c r="G21">
+        <v>-0.1304632747120625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005937681955450456</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002197344858393317</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002741342995016997</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0009462359395298514</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002965290470146161</v>
+      </c>
+      <c r="G22">
+        <v>-0.002269324372006661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005981206613690945</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002193911329810653</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002742693677905137</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0009520499331957032</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002951961711102531</v>
+      </c>
+      <c r="G23">
+        <v>-0.002280665409460966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004506871206141877</v>
+        <v>-0.02846436838981424</v>
       </c>
       <c r="C24">
-        <v>0.002942379081029819</v>
+        <v>0.05162210871181119</v>
       </c>
       <c r="D24">
-        <v>-0.05129817508107182</v>
+        <v>-0.007131240937616307</v>
       </c>
       <c r="E24">
-        <v>-0.01395559893412564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005489620776087344</v>
+      </c>
+      <c r="F24">
+        <v>-0.013768328429489</v>
+      </c>
+      <c r="G24">
+        <v>-0.08591736119738351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01286337894865127</v>
+        <v>-0.04326086246766957</v>
       </c>
       <c r="C25">
-        <v>-0.01468053749811706</v>
+        <v>0.05948071176411465</v>
       </c>
       <c r="D25">
-        <v>-0.0586630651339509</v>
+        <v>-0.01111673876441433</v>
       </c>
       <c r="E25">
-        <v>-0.01542803344750178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001573668033860018</v>
+      </c>
+      <c r="F25">
+        <v>-0.007279256452074694</v>
+      </c>
+      <c r="G25">
+        <v>-0.0958303162659776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02318022431499683</v>
+        <v>-0.01390473932138982</v>
       </c>
       <c r="C26">
-        <v>-0.004582407856633876</v>
+        <v>0.01212635373548415</v>
       </c>
       <c r="D26">
-        <v>-0.002216689179386011</v>
+        <v>-0.02413142835056329</v>
       </c>
       <c r="E26">
-        <v>-0.009207747055978452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007223749700263712</v>
+      </c>
+      <c r="F26">
+        <v>0.007663985032301964</v>
+      </c>
+      <c r="G26">
+        <v>-0.08014064868899586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05079698723371793</v>
+        <v>-0.1251375787109049</v>
       </c>
       <c r="C28">
-        <v>-0.2391452413771246</v>
+        <v>-0.2368856727493028</v>
       </c>
       <c r="D28">
-        <v>0.1365324342580628</v>
+        <v>0.005664280308926335</v>
       </c>
       <c r="E28">
-        <v>-0.00155860888853128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007456280597919286</v>
+      </c>
+      <c r="F28">
+        <v>0.01518126080318983</v>
+      </c>
+      <c r="G28">
+        <v>-0.05747913151266516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009727804173644756</v>
+        <v>-0.00965856732093074</v>
       </c>
       <c r="C29">
-        <v>-0.01791805279195666</v>
+        <v>0.02331514703131551</v>
       </c>
       <c r="D29">
-        <v>-0.02014401985113504</v>
+        <v>-0.008978053286068956</v>
       </c>
       <c r="E29">
-        <v>-0.005108891951380753</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001848332485609279</v>
+      </c>
+      <c r="F29">
+        <v>0.0177892083906586</v>
+      </c>
+      <c r="G29">
+        <v>-0.0926174934380406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02482774349553178</v>
+        <v>-0.04172758776656859</v>
       </c>
       <c r="C30">
-        <v>0.0003692519880995837</v>
+        <v>0.0703851915256013</v>
       </c>
       <c r="D30">
-        <v>-0.1013197497524487</v>
+        <v>-0.02888097407909065</v>
       </c>
       <c r="E30">
-        <v>0.02829069664972725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05298755357443525</v>
+      </c>
+      <c r="F30">
+        <v>-0.04758950992056808</v>
+      </c>
+      <c r="G30">
+        <v>-0.1068519637528578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01079810785760408</v>
+        <v>-0.05295095453381416</v>
       </c>
       <c r="C31">
-        <v>-0.03504383029518454</v>
+        <v>0.03787986927005818</v>
       </c>
       <c r="D31">
-        <v>-0.03663378379034264</v>
+        <v>-0.00389181087425156</v>
       </c>
       <c r="E31">
-        <v>-0.01014299082943813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0009740098731133099</v>
+      </c>
+      <c r="F31">
+        <v>0.03932110120740939</v>
+      </c>
+      <c r="G31">
+        <v>-0.0924405358620069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005339884611691275</v>
+        <v>-0.001060108830707046</v>
       </c>
       <c r="C32">
-        <v>-0.01623568823112836</v>
+        <v>0.02611030115492833</v>
       </c>
       <c r="D32">
-        <v>-0.008277987649752865</v>
+        <v>0.003198362277488177</v>
       </c>
       <c r="E32">
-        <v>-0.06086206436152269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02025257264068144</v>
+      </c>
+      <c r="F32">
+        <v>-0.04112168574518384</v>
+      </c>
+      <c r="G32">
+        <v>-0.09427222662473836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01494685321664156</v>
+        <v>-0.02785397300661862</v>
       </c>
       <c r="C33">
-        <v>-0.02200941989123972</v>
+        <v>0.05094557267707064</v>
       </c>
       <c r="D33">
-        <v>-0.0440276201317182</v>
+        <v>-0.01580238570959373</v>
       </c>
       <c r="E33">
-        <v>0.01563697329535777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03606594591607168</v>
+      </c>
+      <c r="F33">
+        <v>-0.01826216159742697</v>
+      </c>
+      <c r="G33">
+        <v>-0.1435790415750822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003008134366235384</v>
+        <v>-0.04080993551062018</v>
       </c>
       <c r="C34">
-        <v>-0.01796882758554506</v>
+        <v>0.06187615440737567</v>
       </c>
       <c r="D34">
-        <v>-0.05616590510783321</v>
+        <v>0.00475618785529546</v>
       </c>
       <c r="E34">
-        <v>-0.02040416656887808</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0005722673991915226</v>
+      </c>
+      <c r="F34">
+        <v>-0.0197812408820567</v>
+      </c>
+      <c r="G34">
+        <v>-0.09286321745991329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01349734131990697</v>
+        <v>-0.01595834575584819</v>
       </c>
       <c r="C36">
-        <v>-0.0164054861775104</v>
+        <v>0.009752199367471058</v>
       </c>
       <c r="D36">
-        <v>-0.006033438338836888</v>
+        <v>-0.01236602312893859</v>
       </c>
       <c r="E36">
-        <v>-0.008685102948052088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004611832748909789</v>
+      </c>
+      <c r="F36">
+        <v>0.00661452767820031</v>
+      </c>
+      <c r="G36">
+        <v>-0.08588537277497599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001389805615211621</v>
+        <v>-0.03233238350583336</v>
       </c>
       <c r="C38">
-        <v>-0.03422955414026324</v>
+        <v>0.03181585866654978</v>
       </c>
       <c r="D38">
-        <v>-0.05095390279769241</v>
+        <v>0.007471099642196388</v>
       </c>
       <c r="E38">
-        <v>-0.01750502339719431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003343660116263316</v>
+      </c>
+      <c r="F38">
+        <v>0.01917659069376195</v>
+      </c>
+      <c r="G38">
+        <v>-0.08201869336988611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004475975898962774</v>
+        <v>-0.03673973611268137</v>
       </c>
       <c r="C39">
-        <v>0.02198407604919143</v>
+        <v>0.08205196142927383</v>
       </c>
       <c r="D39">
-        <v>-0.1079671705976159</v>
+        <v>-0.01146637045599283</v>
       </c>
       <c r="E39">
-        <v>-0.00450316720651961</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02143225730053719</v>
+      </c>
+      <c r="F39">
+        <v>-0.02473682407061162</v>
+      </c>
+      <c r="G39">
+        <v>-0.08449778702153836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0127254110871815</v>
+        <v>-0.01530282851744328</v>
       </c>
       <c r="C40">
-        <v>-0.01290407589514365</v>
+        <v>0.04333356758653632</v>
       </c>
       <c r="D40">
-        <v>-0.04317037767989802</v>
+        <v>-0.01480482919805172</v>
       </c>
       <c r="E40">
-        <v>-0.01944683029292154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02037635116229583</v>
+      </c>
+      <c r="F40">
+        <v>0.01619133946704807</v>
+      </c>
+      <c r="G40">
+        <v>-0.1221718027487129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006823450515052301</v>
+        <v>-0.02017403007108908</v>
       </c>
       <c r="C41">
-        <v>-0.02015242387767996</v>
+        <v>0.002204610457961716</v>
       </c>
       <c r="D41">
-        <v>0.01198527844917362</v>
+        <v>-0.004385229429292641</v>
       </c>
       <c r="E41">
-        <v>-0.003933466367232554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003218889370029213</v>
+      </c>
+      <c r="F41">
+        <v>0.01347263624160164</v>
+      </c>
+      <c r="G41">
+        <v>-0.0741667666917858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09139655570080939</v>
+        <v>-0.01070717859105687</v>
       </c>
       <c r="C42">
-        <v>0.02091053653334424</v>
+        <v>0.03218654482163785</v>
       </c>
       <c r="D42">
-        <v>-0.1669452548631117</v>
+        <v>-0.09022834141239401</v>
       </c>
       <c r="E42">
-        <v>0.4495247974365548</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01890409587860942</v>
+      </c>
+      <c r="F42">
+        <v>0.04449093462587748</v>
+      </c>
+      <c r="G42">
+        <v>0.1216735710839149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008491985449071766</v>
+        <v>-0.03409058096259691</v>
       </c>
       <c r="C43">
-        <v>-0.02613448342169799</v>
+        <v>0.01783343538573507</v>
       </c>
       <c r="D43">
-        <v>0.008307982326492864</v>
+        <v>-0.006082329846634212</v>
       </c>
       <c r="E43">
-        <v>-0.00386025627814376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01694818914664309</v>
+      </c>
+      <c r="F43">
+        <v>0.003128164787983142</v>
+      </c>
+      <c r="G43">
+        <v>-0.1082685886014565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003896919908088342</v>
+        <v>-0.01270958197703767</v>
       </c>
       <c r="C44">
-        <v>-0.005217012961916043</v>
+        <v>0.05983326749434163</v>
       </c>
       <c r="D44">
-        <v>-0.05561786393862597</v>
+        <v>-0.006804000661257408</v>
       </c>
       <c r="E44">
-        <v>-0.01932544260969181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01849735291323943</v>
+      </c>
+      <c r="F44">
+        <v>0.008464409493734478</v>
+      </c>
+      <c r="G44">
+        <v>-0.1016668724043856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01163762234136339</v>
+        <v>-0.008129818001970702</v>
       </c>
       <c r="C46">
-        <v>-0.01114365640812041</v>
+        <v>0.01821605619726367</v>
       </c>
       <c r="D46">
-        <v>-0.007102668713946525</v>
+        <v>-0.0127108915236217</v>
       </c>
       <c r="E46">
-        <v>0.002725116901788186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00197704055805988</v>
+      </c>
+      <c r="F46">
+        <v>0.0170445181384811</v>
+      </c>
+      <c r="G46">
+        <v>-0.09704782209441318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005593973458481948</v>
+        <v>-0.07752697617326849</v>
       </c>
       <c r="C47">
-        <v>-0.04474522546714981</v>
+        <v>0.06673559747040569</v>
       </c>
       <c r="D47">
-        <v>-0.07123214243855482</v>
+        <v>0.005056392390974568</v>
       </c>
       <c r="E47">
-        <v>-0.01097129129285399</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.005883789927138316</v>
+      </c>
+      <c r="F47">
+        <v>0.05501304295031149</v>
+      </c>
+      <c r="G47">
+        <v>-0.08147444667539185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004828225210494865</v>
+        <v>-0.01943105776215684</v>
       </c>
       <c r="C48">
-        <v>-0.02137473911060497</v>
+        <v>0.01291142954415043</v>
       </c>
       <c r="D48">
-        <v>-0.0170818257503584</v>
+        <v>-0.00198853197289016</v>
       </c>
       <c r="E48">
-        <v>-0.002199651292825467</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00235205531469284</v>
+      </c>
+      <c r="F48">
+        <v>0.01904186215395409</v>
+      </c>
+      <c r="G48">
+        <v>-0.08797351755250216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007777039282659784</v>
+        <v>-0.07480105007190496</v>
       </c>
       <c r="C50">
-        <v>-0.04709230646566276</v>
+        <v>0.07196490413439394</v>
       </c>
       <c r="D50">
-        <v>-0.06954075495956333</v>
+        <v>0.002311792572625717</v>
       </c>
       <c r="E50">
-        <v>-0.03179695724013406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.005735746523936234</v>
+      </c>
+      <c r="F50">
+        <v>0.0553714310929467</v>
+      </c>
+      <c r="G50">
+        <v>-0.09311157613581497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008313347784069116</v>
+        <v>-0.01468740578357436</v>
       </c>
       <c r="C51">
-        <v>-0.01427914092100621</v>
+        <v>0.03731935815480811</v>
       </c>
       <c r="D51">
-        <v>-0.02088257916490232</v>
+        <v>-0.01049682756619705</v>
       </c>
       <c r="E51">
-        <v>-0.007097563204107662</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01938982667000069</v>
+      </c>
+      <c r="F51">
+        <v>-0.02382391358371054</v>
+      </c>
+      <c r="G51">
+        <v>-0.1201715577433128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009472932994689553</v>
+        <v>-0.08166233081985277</v>
       </c>
       <c r="C53">
-        <v>-0.05244564731995496</v>
+        <v>0.08517187035159685</v>
       </c>
       <c r="D53">
-        <v>-0.125113892696736</v>
+        <v>0.003450548996310895</v>
       </c>
       <c r="E53">
-        <v>-0.01975572962463786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02349590665581341</v>
+      </c>
+      <c r="F53">
+        <v>0.06616479175236054</v>
+      </c>
+      <c r="G53">
+        <v>-0.07975474607866928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002974625652330931</v>
+        <v>-0.03052149755621057</v>
       </c>
       <c r="C54">
-        <v>-0.03521692468534829</v>
+        <v>0.01595548282009157</v>
       </c>
       <c r="D54">
-        <v>0.00224460795847584</v>
+        <v>0.001475058010869608</v>
       </c>
       <c r="E54">
-        <v>0.002208505817617061</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0121000319914022</v>
+      </c>
+      <c r="F54">
+        <v>0.001345049241781422</v>
+      </c>
+      <c r="G54">
+        <v>-0.09692865414664338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005147269358414412</v>
+        <v>-0.07201157578399786</v>
       </c>
       <c r="C55">
-        <v>-0.0359221568703559</v>
+        <v>0.0691972734369266</v>
       </c>
       <c r="D55">
-        <v>-0.1019074125247069</v>
+        <v>0.005006338702387324</v>
       </c>
       <c r="E55">
-        <v>-0.007532349046813345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02107220638380755</v>
+      </c>
+      <c r="F55">
+        <v>0.06265326964003862</v>
+      </c>
+      <c r="G55">
+        <v>-0.05746580118116389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008933939773306291</v>
+        <v>-0.137739280363309</v>
       </c>
       <c r="C56">
-        <v>-0.07593028932326706</v>
+        <v>0.1081141654600636</v>
       </c>
       <c r="D56">
-        <v>-0.15388572268137</v>
+        <v>0.01255235443628444</v>
       </c>
       <c r="E56">
-        <v>-0.01330821672191659</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0293397913358995</v>
+      </c>
+      <c r="F56">
+        <v>0.08165055592062959</v>
+      </c>
+      <c r="G56">
+        <v>-0.02971579865454807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02491505798587947</v>
+        <v>-0.006659930682077477</v>
       </c>
       <c r="C57">
-        <v>-0.01008155577010386</v>
+        <v>0.008497670731343748</v>
       </c>
       <c r="D57">
-        <v>-0.04873671163402966</v>
+        <v>-0.02345325700443801</v>
       </c>
       <c r="E57">
-        <v>0.00883604868446209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0254030272327129</v>
+      </c>
+      <c r="F57">
+        <v>-0.01101386238299397</v>
+      </c>
+      <c r="G57">
+        <v>-0.02922463171398452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01510629795023076</v>
+        <v>-0.05484214128037441</v>
       </c>
       <c r="C58">
-        <v>-0.06673880145955385</v>
+        <v>0.05369367183932502</v>
       </c>
       <c r="D58">
-        <v>-0.1797473599960134</v>
+        <v>-0.02369619671464955</v>
       </c>
       <c r="E58">
-        <v>0.5780099340851326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9391696815741454</v>
+      </c>
+      <c r="F58">
+        <v>0.2064714737553048</v>
+      </c>
+      <c r="G58">
+        <v>0.1592426251057576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05117673506989463</v>
+        <v>-0.1599359399859738</v>
       </c>
       <c r="C59">
-        <v>-0.2673271069273502</v>
+        <v>-0.203736816328977</v>
       </c>
       <c r="D59">
-        <v>0.1259518501020597</v>
+        <v>0.01127216270799718</v>
       </c>
       <c r="E59">
-        <v>-0.01720275458050273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01807689934020947</v>
+      </c>
+      <c r="F59">
+        <v>-0.002680427015232389</v>
+      </c>
+      <c r="G59">
+        <v>-0.04306379257615973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04871809195585746</v>
+        <v>-0.2870518410364615</v>
       </c>
       <c r="C60">
-        <v>-0.1609627834012989</v>
+        <v>0.1060251982586725</v>
       </c>
       <c r="D60">
-        <v>-0.1258551336001127</v>
+        <v>-0.01152033965534078</v>
       </c>
       <c r="E60">
-        <v>-0.07717920268235692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01537995876467912</v>
+      </c>
+      <c r="F60">
+        <v>-0.3456179507252743</v>
+      </c>
+      <c r="G60">
+        <v>0.1454148209103837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003793559364361646</v>
+        <v>-0.03831606125083914</v>
       </c>
       <c r="C61">
-        <v>-0.004442342515786062</v>
+        <v>0.06772245653131066</v>
       </c>
       <c r="D61">
-        <v>-0.07884936057113291</v>
+        <v>-0.005252559164235014</v>
       </c>
       <c r="E61">
-        <v>-0.02034044031950444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01402337771964531</v>
+      </c>
+      <c r="F61">
+        <v>-0.01531025637067946</v>
+      </c>
+      <c r="G61">
+        <v>-0.08929119102084634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008910619433346229</v>
+        <v>-0.01511649847890814</v>
       </c>
       <c r="C63">
-        <v>-0.008133744848928587</v>
+        <v>0.0305078515593813</v>
       </c>
       <c r="D63">
-        <v>-0.02696132922589793</v>
+        <v>-0.00859497987400203</v>
       </c>
       <c r="E63">
-        <v>-0.02223980054366018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002068878303310147</v>
+      </c>
+      <c r="F63">
+        <v>0.01587420025611578</v>
+      </c>
+      <c r="G63">
+        <v>-0.0909156511796841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01028372080945582</v>
+        <v>-0.04768049711622917</v>
       </c>
       <c r="C64">
-        <v>-0.02861388540382969</v>
+        <v>0.04751473278339731</v>
       </c>
       <c r="D64">
-        <v>-0.06105004414416129</v>
+        <v>-0.006191830111247252</v>
       </c>
       <c r="E64">
-        <v>-0.005256724971449441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001766715077075655</v>
+      </c>
+      <c r="F64">
+        <v>-0.006019699513740288</v>
+      </c>
+      <c r="G64">
+        <v>-0.0866925503498682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01762846603926013</v>
+        <v>-0.0750263437891885</v>
       </c>
       <c r="C65">
-        <v>-0.0008719914306849612</v>
+        <v>0.05988114884615556</v>
       </c>
       <c r="D65">
-        <v>-0.1011045493613261</v>
+        <v>-0.01639328555986721</v>
       </c>
       <c r="E65">
-        <v>-0.02675851440980323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03154492083913082</v>
+      </c>
+      <c r="F65">
+        <v>-0.0320593038242118</v>
+      </c>
+      <c r="G65">
+        <v>-0.03147108146880816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005318626832436574</v>
+        <v>-0.05207229899027262</v>
       </c>
       <c r="C66">
-        <v>0.0155786171364683</v>
+        <v>0.1101558501739152</v>
       </c>
       <c r="D66">
-        <v>-0.1406956031324021</v>
+        <v>-0.01146909290212688</v>
       </c>
       <c r="E66">
-        <v>-0.01325421332077724</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0305254644677391</v>
+      </c>
+      <c r="F66">
+        <v>-0.03631714997803504</v>
+      </c>
+      <c r="G66">
+        <v>-0.1008373933953975</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005672772901475599</v>
+        <v>-0.05538259813470114</v>
       </c>
       <c r="C67">
-        <v>-0.05418955728932905</v>
+        <v>0.03502329446239776</v>
       </c>
       <c r="D67">
-        <v>-0.06525894791205168</v>
+        <v>0.005882561625247779</v>
       </c>
       <c r="E67">
-        <v>-0.02029983506111149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003271476967823952</v>
+      </c>
+      <c r="F67">
+        <v>0.01790885816082458</v>
+      </c>
+      <c r="G67">
+        <v>-0.07359353310365344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06527395675346638</v>
+        <v>-0.153028171094297</v>
       </c>
       <c r="C68">
-        <v>-0.2393591237421137</v>
+        <v>-0.2699569341811017</v>
       </c>
       <c r="D68">
-        <v>0.166019227404903</v>
+        <v>-0.006156445797230787</v>
       </c>
       <c r="E68">
-        <v>0.02858158686364214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01244371272878676</v>
+      </c>
+      <c r="F68">
+        <v>0.03368182749439997</v>
+      </c>
+      <c r="G68">
+        <v>-0.03118029649862461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001224843915009603</v>
+        <v>-0.081715574555876</v>
       </c>
       <c r="C69">
-        <v>-0.03929649730252253</v>
+        <v>0.07001778100344275</v>
       </c>
       <c r="D69">
-        <v>-0.07491112850948656</v>
+        <v>0.008953779820899661</v>
       </c>
       <c r="E69">
-        <v>-0.02492507637746487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02222566167437664</v>
+      </c>
+      <c r="F69">
+        <v>0.03756063646915268</v>
+      </c>
+      <c r="G69">
+        <v>-0.09127181923309297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04978299558114584</v>
+        <v>-0.1398571364781536</v>
       </c>
       <c r="C71">
-        <v>-0.2120407438653131</v>
+        <v>-0.2276716551321201</v>
       </c>
       <c r="D71">
-        <v>0.1123455047827334</v>
+        <v>0.002341233096643863</v>
       </c>
       <c r="E71">
-        <v>0.01948053083980575</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03416172622622505</v>
+      </c>
+      <c r="F71">
+        <v>0.01848882365132507</v>
+      </c>
+      <c r="G71">
+        <v>-0.06767073129640463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003916493977450011</v>
+        <v>-0.08561711350581371</v>
       </c>
       <c r="C72">
-        <v>-0.03351472130059698</v>
+        <v>0.07311460701719079</v>
       </c>
       <c r="D72">
-        <v>-0.1084791428874485</v>
+        <v>0.008491055849461505</v>
       </c>
       <c r="E72">
-        <v>-0.03972677114237226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005141912147001395</v>
+      </c>
+      <c r="F72">
+        <v>-0.0367949784051206</v>
+      </c>
+      <c r="G72">
+        <v>-0.07980474784473342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06313154805820972</v>
+        <v>-0.3767474019316314</v>
       </c>
       <c r="C73">
-        <v>-0.1857259645154382</v>
+        <v>0.1140852265347465</v>
       </c>
       <c r="D73">
-        <v>-0.2332320308717339</v>
+        <v>-0.01906257544199164</v>
       </c>
       <c r="E73">
-        <v>-0.06137700907923129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04922358220943299</v>
+      </c>
+      <c r="F73">
+        <v>-0.5753234183079713</v>
+      </c>
+      <c r="G73">
+        <v>0.2682327326608479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.006614374542163093</v>
+        <v>-0.1053586721451071</v>
       </c>
       <c r="C74">
-        <v>-0.06648335452866447</v>
+        <v>0.1095211713300278</v>
       </c>
       <c r="D74">
-        <v>-0.1694418159017241</v>
+        <v>0.009290217262229946</v>
       </c>
       <c r="E74">
-        <v>-0.01151631320388101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.004691097731336559</v>
+      </c>
+      <c r="F74">
+        <v>0.06844997284030611</v>
+      </c>
+      <c r="G74">
+        <v>-0.0739916187936428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01696536750056035</v>
+        <v>-0.2490988285915377</v>
       </c>
       <c r="C75">
-        <v>-0.1528577319391361</v>
+        <v>0.1510218806641956</v>
       </c>
       <c r="D75">
-        <v>-0.289171618079708</v>
+        <v>0.03077891235095328</v>
       </c>
       <c r="E75">
-        <v>-0.01133919141296888</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05291494821924908</v>
+      </c>
+      <c r="F75">
+        <v>0.178729308274322</v>
+      </c>
+      <c r="G75">
+        <v>0.04308915869751086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005041164272060476</v>
+        <v>-0.1208484471083816</v>
       </c>
       <c r="C76">
-        <v>-0.09745207470929902</v>
+        <v>0.1101789276109097</v>
       </c>
       <c r="D76">
-        <v>-0.214413263114179</v>
+        <v>0.01884455713710246</v>
       </c>
       <c r="E76">
-        <v>-0.04460452749475138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02704793183733216</v>
+      </c>
+      <c r="F76">
+        <v>0.1122628245841605</v>
+      </c>
+      <c r="G76">
+        <v>-0.04976607858549924</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01604987314559028</v>
+        <v>-0.06854042185006583</v>
       </c>
       <c r="C77">
-        <v>-0.02456575905267359</v>
+        <v>0.06249649440904537</v>
       </c>
       <c r="D77">
-        <v>-0.07195956086845814</v>
+        <v>-0.01153319692055239</v>
       </c>
       <c r="E77">
-        <v>0.0009650460947678736</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04250587004679372</v>
+      </c>
+      <c r="F77">
+        <v>-0.01081181654900669</v>
+      </c>
+      <c r="G77">
+        <v>-0.06362609686147018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006148796019351772</v>
+        <v>-0.04267100776774299</v>
       </c>
       <c r="C78">
-        <v>-0.01417737203336367</v>
+        <v>0.0520611933264865</v>
       </c>
       <c r="D78">
-        <v>-0.05687590700012201</v>
+        <v>-0.005445536372584599</v>
       </c>
       <c r="E78">
-        <v>-0.007472810116549522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02213207834235613</v>
+      </c>
+      <c r="F78">
+        <v>-0.03651691421047782</v>
+      </c>
+      <c r="G78">
+        <v>-0.0888390465322344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01188680694073245</v>
+        <v>-0.04366060747741517</v>
       </c>
       <c r="C80">
-        <v>-0.02433126430405331</v>
+        <v>0.07456546053528533</v>
       </c>
       <c r="D80">
-        <v>-0.1497974053722681</v>
+        <v>-0.01131922960526767</v>
       </c>
       <c r="E80">
-        <v>-0.6371342244521193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0329394090875059</v>
+      </c>
+      <c r="F80">
+        <v>-0.02896488268319737</v>
+      </c>
+      <c r="G80">
+        <v>-0.3436637533542156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01213369288802448</v>
+        <v>-0.13980109628058</v>
       </c>
       <c r="C81">
-        <v>-0.09653823420040063</v>
+        <v>0.09646134027917345</v>
       </c>
       <c r="D81">
-        <v>-0.1728825537707029</v>
+        <v>0.01509508405173398</v>
       </c>
       <c r="E81">
-        <v>-0.02489448432826312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03053319015641537</v>
+      </c>
+      <c r="F81">
+        <v>0.1345784422116827</v>
+      </c>
+      <c r="G81">
+        <v>-0.02341665581699822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1277530982498018</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07294665124905407</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008118367620460362</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08966742178078489</v>
+      </c>
+      <c r="F82">
+        <v>0.04368302305460911</v>
+      </c>
+      <c r="G82">
+        <v>-0.05676579565449377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008394111319478887</v>
+        <v>-0.03653422142954916</v>
       </c>
       <c r="C83">
-        <v>-0.02238692474183661</v>
+        <v>0.03000693271909631</v>
       </c>
       <c r="D83">
-        <v>-0.03660510817272728</v>
+        <v>-0.005623082770362085</v>
       </c>
       <c r="E83">
-        <v>-0.001651911272639417</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02716441044547233</v>
+      </c>
+      <c r="F83">
+        <v>-0.03263214124840563</v>
+      </c>
+      <c r="G83">
+        <v>-0.06015352944457589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02300972491679305</v>
+        <v>-0.2144204794050728</v>
       </c>
       <c r="C85">
-        <v>-0.1190672139135715</v>
+        <v>0.1441632882553457</v>
       </c>
       <c r="D85">
-        <v>-0.2612123510365597</v>
+        <v>0.01813470183416101</v>
       </c>
       <c r="E85">
-        <v>-0.02074039011507702</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09260899990276091</v>
+      </c>
+      <c r="F85">
+        <v>0.1375830029940599</v>
+      </c>
+      <c r="G85">
+        <v>0.1010148578329662</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01077012683477336</v>
+        <v>-0.01476786184965832</v>
       </c>
       <c r="C86">
-        <v>-0.02987486981372226</v>
+        <v>0.03088969782731111</v>
       </c>
       <c r="D86">
-        <v>-0.06200916642558051</v>
+        <v>-0.01239153527172268</v>
       </c>
       <c r="E86">
-        <v>0.03223562409856087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04922047885534461</v>
+      </c>
+      <c r="F86">
+        <v>-0.03094161021822784</v>
+      </c>
+      <c r="G86">
+        <v>-0.1829909998052317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008282443766783797</v>
+        <v>-0.02274532583479039</v>
       </c>
       <c r="C87">
-        <v>-0.0008195150384543324</v>
+        <v>0.02400621587983708</v>
       </c>
       <c r="D87">
-        <v>-0.05620915734682237</v>
+        <v>-0.01190709383491746</v>
       </c>
       <c r="E87">
-        <v>0.006178156813427802</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08671333322803626</v>
+      </c>
+      <c r="F87">
+        <v>-0.01737059675768548</v>
+      </c>
+      <c r="G87">
+        <v>-0.1160330548754332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02895890467774236</v>
+        <v>-0.09217784442004262</v>
       </c>
       <c r="C88">
-        <v>-0.02946513099782685</v>
+        <v>0.06724132584979026</v>
       </c>
       <c r="D88">
-        <v>-0.05486018367597453</v>
+        <v>-0.02271675972955867</v>
       </c>
       <c r="E88">
-        <v>-8.730511992309089e-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006930889588523521</v>
+      </c>
+      <c r="F88">
+        <v>0.01645212336736512</v>
+      </c>
+      <c r="G88">
+        <v>-0.08206477924161223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09422984545464058</v>
+        <v>-0.2321038849583412</v>
       </c>
       <c r="C89">
-        <v>-0.3891273433400128</v>
+        <v>-0.3691035037404387</v>
       </c>
       <c r="D89">
-        <v>0.2143142983331594</v>
+        <v>-6.533815827682486e-05</v>
       </c>
       <c r="E89">
-        <v>-0.02375885673347371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01267940189068969</v>
+      </c>
+      <c r="F89">
+        <v>0.02718338185128884</v>
+      </c>
+      <c r="G89">
+        <v>-0.07139910139844974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07237501348786891</v>
+        <v>-0.207144142912982</v>
       </c>
       <c r="C90">
-        <v>-0.3057137441871123</v>
+        <v>-0.3187315869314564</v>
       </c>
       <c r="D90">
-        <v>0.1871457218344717</v>
+        <v>0.004112727511212087</v>
       </c>
       <c r="E90">
-        <v>0.02059458554423291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001064293317884425</v>
+      </c>
+      <c r="F90">
+        <v>0.05444287325984953</v>
+      </c>
+      <c r="G90">
+        <v>-0.03772989813511817</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01322427241248193</v>
+        <v>-0.1876207251600818</v>
       </c>
       <c r="C91">
-        <v>-0.1336960483502473</v>
+        <v>0.1385657047393768</v>
       </c>
       <c r="D91">
-        <v>-0.2139493007757404</v>
+        <v>0.02247135537779694</v>
       </c>
       <c r="E91">
-        <v>-0.02473163034132345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05700952570899351</v>
+      </c>
+      <c r="F91">
+        <v>0.148039111674362</v>
+      </c>
+      <c r="G91">
+        <v>-0.01576608177914931</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04133279780588477</v>
+        <v>-0.1996841011753827</v>
       </c>
       <c r="C92">
-        <v>-0.3206421434068632</v>
+        <v>-0.2551855406389107</v>
       </c>
       <c r="D92">
-        <v>0.08472437117969224</v>
+        <v>0.03762489210278841</v>
       </c>
       <c r="E92">
-        <v>0.02928863806443083</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.04098703410145819</v>
+      </c>
+      <c r="F92">
+        <v>0.05565062547137705</v>
+      </c>
+      <c r="G92">
+        <v>-0.1308274028370842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0717926199268239</v>
+        <v>-0.2320103528398229</v>
       </c>
       <c r="C93">
-        <v>-0.3326226812627207</v>
+        <v>-0.3149474226887852</v>
       </c>
       <c r="D93">
-        <v>0.1626606133209415</v>
+        <v>0.01110335726305851</v>
       </c>
       <c r="E93">
-        <v>0.02714520607007337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0101873553149277</v>
+      </c>
+      <c r="F93">
+        <v>0.04087816734512011</v>
+      </c>
+      <c r="G93">
+        <v>-0.04818768049263446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.04100724713111638</v>
+        <v>-0.3160554927927714</v>
       </c>
       <c r="C94">
-        <v>-0.1671002268076728</v>
+        <v>0.1745655517378929</v>
       </c>
       <c r="D94">
-        <v>-0.2466960891603263</v>
+        <v>0.01717581397227836</v>
       </c>
       <c r="E94">
-        <v>0.01081041176185896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1676486990834997</v>
+      </c>
+      <c r="F94">
+        <v>0.4851325793520834</v>
+      </c>
+      <c r="G94">
+        <v>0.3771616758324286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002470579387025851</v>
+        <v>-0.1001921370916076</v>
       </c>
       <c r="C95">
-        <v>-0.03487198085032021</v>
+        <v>0.08712222503659935</v>
       </c>
       <c r="D95">
-        <v>-0.1171667936229744</v>
+        <v>0.01031847095712826</v>
       </c>
       <c r="E95">
-        <v>0.1303719964213751</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06425456659122203</v>
+      </c>
+      <c r="F95">
+        <v>-0.2087178246357252</v>
+      </c>
+      <c r="G95">
+        <v>0.08600560270465547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02038585163982515</v>
+        <v>-0.197616356844354</v>
       </c>
       <c r="C98">
-        <v>-0.1565437623802529</v>
+        <v>0.04500772042429507</v>
       </c>
       <c r="D98">
-        <v>-0.1426328754503133</v>
+        <v>0.01383839387991108</v>
       </c>
       <c r="E98">
-        <v>-0.01001545664000291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05907717757251182</v>
+      </c>
+      <c r="F98">
+        <v>-0.2417632250314087</v>
+      </c>
+      <c r="G98">
+        <v>0.01034208607883861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009531370925234562</v>
+        <v>-0.009495472435532651</v>
       </c>
       <c r="C101">
-        <v>-0.01772746007478775</v>
+        <v>0.02327940046998302</v>
       </c>
       <c r="D101">
-        <v>-0.02007873856753985</v>
+        <v>-0.008806517473918632</v>
       </c>
       <c r="E101">
-        <v>-0.004911205859256743</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001637177791788294</v>
+      </c>
+      <c r="F101">
+        <v>0.0186763785913496</v>
+      </c>
+      <c r="G101">
+        <v>-0.09168892906931879</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01934542712250151</v>
+        <v>-0.1170970822318174</v>
       </c>
       <c r="C102">
-        <v>-0.06055225973453909</v>
+        <v>0.08375339418346166</v>
       </c>
       <c r="D102">
-        <v>-0.1222127306720398</v>
+        <v>-0.0007568592286179265</v>
       </c>
       <c r="E102">
-        <v>-0.0132160774830153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03435207458314076</v>
+      </c>
+      <c r="F102">
+        <v>0.04074073434982828</v>
+      </c>
+      <c r="G102">
+        <v>-0.004161135159252326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0006198979919801692</v>
+        <v>-0.0009035812016494932</v>
       </c>
       <c r="C103">
-        <v>-0.001560276553450937</v>
+        <v>0.002330161009759463</v>
       </c>
       <c r="D103">
-        <v>-0.009063562257064332</v>
+        <v>-0.0002935804652658915</v>
       </c>
       <c r="E103">
-        <v>0.005105010464616045</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.003064027182290549</v>
+      </c>
+      <c r="F103">
+        <v>0.003985648846098623</v>
+      </c>
+      <c r="G103">
+        <v>-0.004741650155639215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9687729270756247</v>
+        <v>-0.02117394252170462</v>
       </c>
       <c r="C104">
-        <v>0.2079467189255924</v>
+        <v>-0.02942389466540763</v>
       </c>
       <c r="D104">
-        <v>0.02400229689942663</v>
+        <v>-0.9878276683177453</v>
       </c>
       <c r="E104">
-        <v>-0.03551131008071158</v>
+        <v>0.04591414189800137</v>
+      </c>
+      <c r="F104">
+        <v>0.03556089107669435</v>
+      </c>
+      <c r="G104">
+        <v>0.03342280745612952</v>
       </c>
     </row>
   </sheetData>
